--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.46760158848164</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H2">
-        <v>5.46760158848164</v>
+        <v>0.655303</v>
       </c>
       <c r="I2">
-        <v>0.1113620810968506</v>
+        <v>0.003667014339406968</v>
       </c>
       <c r="J2">
-        <v>0.1113620810968506</v>
+        <v>0.003688402732154508</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.643768154173615</v>
+        <v>0.030895</v>
       </c>
       <c r="N2">
-        <v>0.643768154173615</v>
+        <v>0.092685</v>
       </c>
       <c r="O2">
-        <v>0.2478456696103652</v>
+        <v>0.005621295871693869</v>
       </c>
       <c r="P2">
-        <v>0.2478456696103652</v>
+        <v>0.006026528037123699</v>
       </c>
       <c r="Q2">
-        <v>3.51986778237355</v>
+        <v>0.006748528728333333</v>
       </c>
       <c r="R2">
-        <v>3.51986778237355</v>
+        <v>0.060736758555</v>
       </c>
       <c r="S2">
-        <v>0.02760060955865274</v>
+        <v>2.061337256755061E-05</v>
       </c>
       <c r="T2">
-        <v>0.02760060955865274</v>
+        <v>2.22282624775328E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.46760158848164</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H3">
-        <v>5.46760158848164</v>
+        <v>0.655303</v>
       </c>
       <c r="I3">
-        <v>0.1113620810968506</v>
+        <v>0.003667014339406968</v>
       </c>
       <c r="J3">
-        <v>0.1113620810968506</v>
+        <v>0.003688402732154508</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.95368757376254</v>
+        <v>0.1303473333333333</v>
       </c>
       <c r="N3">
-        <v>1.95368757376254</v>
+        <v>0.391042</v>
       </c>
       <c r="O3">
-        <v>0.7521543303896349</v>
+        <v>0.02371648897080341</v>
       </c>
       <c r="P3">
-        <v>0.7521543303896349</v>
+        <v>0.02542618089974565</v>
       </c>
       <c r="Q3">
-        <v>10.68198528170091</v>
+        <v>0.02847233285844444</v>
       </c>
       <c r="R3">
-        <v>10.68198528170091</v>
+        <v>0.256250995726</v>
       </c>
       <c r="S3">
-        <v>0.08376147153819789</v>
+        <v>8.696870513632333E-05</v>
       </c>
       <c r="T3">
-        <v>0.08376147153819789</v>
+        <v>9.378199509887662E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>16.2230889281251</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H4">
-        <v>16.2230889281251</v>
+        <v>0.655303</v>
       </c>
       <c r="I4">
-        <v>0.3304258577766989</v>
+        <v>0.003667014339406968</v>
       </c>
       <c r="J4">
-        <v>0.3304258577766989</v>
+        <v>0.003688402732154508</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.643768154173615</v>
+        <v>1.279652333333333</v>
       </c>
       <c r="N4">
-        <v>0.643768154173615</v>
+        <v>3.838957</v>
       </c>
       <c r="O4">
-        <v>0.2478456696103652</v>
+        <v>0.2328306968302345</v>
       </c>
       <c r="P4">
-        <v>0.2478456696103652</v>
+        <v>0.2496151695939179</v>
       </c>
       <c r="Q4">
-        <v>10.44390801425351</v>
+        <v>0.2795200043301111</v>
       </c>
       <c r="R4">
-        <v>10.44390801425351</v>
+        <v>2.515680038971</v>
       </c>
       <c r="S4">
-        <v>0.08189461797724523</v>
+        <v>0.0008537935039305863</v>
       </c>
       <c r="T4">
-        <v>0.08189461797724523</v>
+        <v>0.0009206812735174178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>16.2230889281251</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H5">
-        <v>16.2230889281251</v>
+        <v>0.655303</v>
       </c>
       <c r="I5">
-        <v>0.3304258577766989</v>
+        <v>0.003667014339406968</v>
       </c>
       <c r="J5">
-        <v>0.3304258577766989</v>
+        <v>0.003688402732154508</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.95368757376254</v>
+        <v>2.94648</v>
       </c>
       <c r="N5">
-        <v>1.95368757376254</v>
+        <v>8.83944</v>
       </c>
       <c r="O5">
-        <v>0.7521543303896349</v>
+        <v>0.5361073267528257</v>
       </c>
       <c r="P5">
-        <v>0.7521543303896349</v>
+        <v>0.5747546311967708</v>
       </c>
       <c r="Q5">
-        <v>31.69484724692266</v>
+        <v>0.6436123944799998</v>
       </c>
       <c r="R5">
-        <v>31.69484724692266</v>
+        <v>5.79251155032</v>
       </c>
       <c r="S5">
-        <v>0.2485312397994537</v>
+        <v>0.001965913254663749</v>
       </c>
       <c r="T5">
-        <v>0.2485312397994537</v>
+        <v>0.002119926552024626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>26.8008900439944</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H6">
-        <v>26.8008900439944</v>
+        <v>0.655303</v>
       </c>
       <c r="I6">
-        <v>0.5458705873585623</v>
+        <v>0.003667014339406968</v>
       </c>
       <c r="J6">
-        <v>0.5458705873585623</v>
+        <v>0.003688402732154508</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.643768154173615</v>
+        <v>1.108689</v>
       </c>
       <c r="N6">
-        <v>0.643768154173615</v>
+        <v>2.217378</v>
       </c>
       <c r="O6">
-        <v>0.2478456696103652</v>
+        <v>0.2017241915744426</v>
       </c>
       <c r="P6">
-        <v>0.2478456696103652</v>
+        <v>0.1441774902724418</v>
       </c>
       <c r="Q6">
-        <v>17.25355951383229</v>
+        <v>0.242175742589</v>
       </c>
       <c r="R6">
-        <v>17.25355951383229</v>
+        <v>1.453054455534</v>
       </c>
       <c r="S6">
-        <v>0.1352916612444862</v>
+        <v>0.0007397255031087594</v>
       </c>
       <c r="T6">
-        <v>0.1352916612444862</v>
+        <v>0.0005317846490360545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.8008900439944</v>
+        <v>6.635478333333334</v>
       </c>
       <c r="H7">
-        <v>26.8008900439944</v>
+        <v>19.906435</v>
       </c>
       <c r="I7">
-        <v>0.5458705873585623</v>
+        <v>0.1113945496838451</v>
       </c>
       <c r="J7">
-        <v>0.5458705873585623</v>
+        <v>0.1120442745439226</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.95368757376254</v>
+        <v>0.030895</v>
       </c>
       <c r="N7">
-        <v>1.95368757376254</v>
+        <v>0.092685</v>
       </c>
       <c r="O7">
-        <v>0.7521543303896349</v>
+        <v>0.005621295871693869</v>
       </c>
       <c r="P7">
-        <v>0.7521543303896349</v>
+        <v>0.006026528037123699</v>
       </c>
       <c r="Q7">
-        <v>52.36056584472804</v>
+        <v>0.2050031031083334</v>
       </c>
       <c r="R7">
-        <v>52.36056584472804</v>
+        <v>1.845027927975</v>
       </c>
       <c r="S7">
-        <v>0.4105789261140761</v>
+        <v>0.0006261817222669962</v>
       </c>
       <c r="T7">
-        <v>0.4105789261140761</v>
+        <v>0.0006752379619381348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.605935709111123</v>
+        <v>6.635478333333334</v>
       </c>
       <c r="H8">
-        <v>0.605935709111123</v>
+        <v>19.906435</v>
       </c>
       <c r="I8">
-        <v>0.0123414737678883</v>
+        <v>0.1113945496838451</v>
       </c>
       <c r="J8">
-        <v>0.0123414737678883</v>
+        <v>0.1120442745439226</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.643768154173615</v>
+        <v>0.1303473333333333</v>
       </c>
       <c r="N8">
-        <v>0.643768154173615</v>
+        <v>0.391042</v>
       </c>
       <c r="O8">
-        <v>0.2478456696103652</v>
+        <v>0.02371648897080341</v>
       </c>
       <c r="P8">
-        <v>0.2478456696103652</v>
+        <v>0.02542618089974565</v>
       </c>
       <c r="Q8">
-        <v>0.3900821130023482</v>
+        <v>0.8649169061411113</v>
       </c>
       <c r="R8">
-        <v>0.3900821130023482</v>
+        <v>7.784252155270001</v>
       </c>
       <c r="S8">
-        <v>0.003058780829981034</v>
+        <v>0.002641887608984525</v>
       </c>
       <c r="T8">
-        <v>0.003058780829981034</v>
+        <v>0.002848857993334543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.605935709111123</v>
+        <v>6.635478333333334</v>
       </c>
       <c r="H9">
-        <v>0.605935709111123</v>
+        <v>19.906435</v>
       </c>
       <c r="I9">
-        <v>0.0123414737678883</v>
+        <v>0.1113945496838451</v>
       </c>
       <c r="J9">
-        <v>0.0123414737678883</v>
+        <v>0.1120442745439226</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.95368757376254</v>
+        <v>1.279652333333333</v>
       </c>
       <c r="N9">
-        <v>1.95368757376254</v>
+        <v>3.838957</v>
       </c>
       <c r="O9">
-        <v>0.7521543303896349</v>
+        <v>0.2328306968302345</v>
       </c>
       <c r="P9">
-        <v>0.7521543303896349</v>
+        <v>0.2496151695939179</v>
       </c>
       <c r="Q9">
-        <v>1.183809065389394</v>
+        <v>8.491105332032779</v>
       </c>
       <c r="R9">
-        <v>1.183809065389394</v>
+        <v>76.41994798829501</v>
       </c>
       <c r="S9">
-        <v>0.009282692937907271</v>
+        <v>0.02593607062597984</v>
       </c>
       <c r="T9">
-        <v>0.009282692937907271</v>
+        <v>0.02796795059230875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.635478333333334</v>
+      </c>
+      <c r="H10">
+        <v>19.906435</v>
+      </c>
+      <c r="I10">
+        <v>0.1113945496838451</v>
+      </c>
+      <c r="J10">
+        <v>0.1120442745439226</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.94648</v>
+      </c>
+      <c r="N10">
+        <v>8.83944</v>
+      </c>
+      <c r="O10">
+        <v>0.5361073267528257</v>
+      </c>
+      <c r="P10">
+        <v>0.5747546311967708</v>
+      </c>
+      <c r="Q10">
+        <v>19.5513041996</v>
+      </c>
+      <c r="R10">
+        <v>175.9617377964</v>
+      </c>
+      <c r="S10">
+        <v>0.05971943424584104</v>
+      </c>
+      <c r="T10">
+        <v>0.06439796569320198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.635478333333334</v>
+      </c>
+      <c r="H11">
+        <v>19.906435</v>
+      </c>
+      <c r="I11">
+        <v>0.1113945496838451</v>
+      </c>
+      <c r="J11">
+        <v>0.1120442745439226</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>1.108689</v>
+      </c>
+      <c r="N11">
+        <v>2.217378</v>
+      </c>
+      <c r="O11">
+        <v>0.2017241915744426</v>
+      </c>
+      <c r="P11">
+        <v>0.1441774902724418</v>
+      </c>
+      <c r="Q11">
+        <v>7.356681837905001</v>
+      </c>
+      <c r="R11">
+        <v>44.14009102743</v>
+      </c>
+      <c r="S11">
+        <v>0.02247097548077274</v>
+      </c>
+      <c r="T11">
+        <v>0.01615426230313921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>24.76501</v>
+      </c>
+      <c r="H12">
+        <v>74.29503</v>
+      </c>
+      <c r="I12">
+        <v>0.4157480438158698</v>
+      </c>
+      <c r="J12">
+        <v>0.4181729545530863</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030895</v>
+      </c>
+      <c r="N12">
+        <v>0.092685</v>
+      </c>
+      <c r="O12">
+        <v>0.005621295871693869</v>
+      </c>
+      <c r="P12">
+        <v>0.006026528037123699</v>
+      </c>
+      <c r="Q12">
+        <v>0.7651149839500001</v>
+      </c>
+      <c r="R12">
+        <v>6.88603485555</v>
+      </c>
+      <c r="S12">
+        <v>0.00233704276236695</v>
+      </c>
+      <c r="T12">
+        <v>0.002520131034981029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24.76501</v>
+      </c>
+      <c r="H13">
+        <v>74.29503</v>
+      </c>
+      <c r="I13">
+        <v>0.4157480438158698</v>
+      </c>
+      <c r="J13">
+        <v>0.4181729545530863</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1303473333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.391042</v>
+      </c>
+      <c r="O13">
+        <v>0.02371648897080341</v>
+      </c>
+      <c r="P13">
+        <v>0.02542618089974565</v>
+      </c>
+      <c r="Q13">
+        <v>3.228053013473334</v>
+      </c>
+      <c r="R13">
+        <v>29.05247712126</v>
+      </c>
+      <c r="S13">
+        <v>0.009860083895792168</v>
+      </c>
+      <c r="T13">
+        <v>0.01063254118984789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.76501</v>
+      </c>
+      <c r="H14">
+        <v>74.29503</v>
+      </c>
+      <c r="I14">
+        <v>0.4157480438158698</v>
+      </c>
+      <c r="J14">
+        <v>0.4181729545530863</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.279652333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.838957</v>
+      </c>
+      <c r="O14">
+        <v>0.2328306968302345</v>
+      </c>
+      <c r="P14">
+        <v>0.2496151695939179</v>
+      </c>
+      <c r="Q14">
+        <v>31.69060283152334</v>
+      </c>
+      <c r="R14">
+        <v>285.21542548371</v>
+      </c>
+      <c r="S14">
+        <v>0.09679890674745581</v>
+      </c>
+      <c r="T14">
+        <v>0.1043823129703584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.76501</v>
+      </c>
+      <c r="H15">
+        <v>74.29503</v>
+      </c>
+      <c r="I15">
+        <v>0.4157480438158698</v>
+      </c>
+      <c r="J15">
+        <v>0.4181729545530863</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.94648</v>
+      </c>
+      <c r="N15">
+        <v>8.83944</v>
+      </c>
+      <c r="O15">
+        <v>0.5361073267528257</v>
+      </c>
+      <c r="P15">
+        <v>0.5747546311967708</v>
+      </c>
+      <c r="Q15">
+        <v>72.9696066648</v>
+      </c>
+      <c r="R15">
+        <v>656.7264599831999</v>
+      </c>
+      <c r="S15">
+        <v>0.2228855723728426</v>
+      </c>
+      <c r="T15">
+        <v>0.2403468422706231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.76501</v>
+      </c>
+      <c r="H16">
+        <v>74.29503</v>
+      </c>
+      <c r="I16">
+        <v>0.4157480438158698</v>
+      </c>
+      <c r="J16">
+        <v>0.4181729545530863</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>1.108689</v>
+      </c>
+      <c r="N16">
+        <v>2.217378</v>
+      </c>
+      <c r="O16">
+        <v>0.2017241915744426</v>
+      </c>
+      <c r="P16">
+        <v>0.1441774902724418</v>
+      </c>
+      <c r="Q16">
+        <v>27.45669417189</v>
+      </c>
+      <c r="R16">
+        <v>164.74016503134</v>
+      </c>
+      <c r="S16">
+        <v>0.08386643803741227</v>
+      </c>
+      <c r="T16">
+        <v>0.06029112708727586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>26.91216766666667</v>
+      </c>
+      <c r="H17">
+        <v>80.736503</v>
+      </c>
+      <c r="I17">
+        <v>0.4517939246647333</v>
+      </c>
+      <c r="J17">
+        <v>0.45442907822763</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.030895</v>
+      </c>
+      <c r="N17">
+        <v>0.092685</v>
+      </c>
+      <c r="O17">
+        <v>0.005621295871693869</v>
+      </c>
+      <c r="P17">
+        <v>0.006026528037123699</v>
+      </c>
+      <c r="Q17">
+        <v>0.8314514200616667</v>
+      </c>
+      <c r="R17">
+        <v>7.483062780555001</v>
+      </c>
+      <c r="S17">
+        <v>0.002539667323574236</v>
+      </c>
+      <c r="T17">
+        <v>0.002738629580823091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>26.91216766666667</v>
+      </c>
+      <c r="H18">
+        <v>80.736503</v>
+      </c>
+      <c r="I18">
+        <v>0.4517939246647333</v>
+      </c>
+      <c r="J18">
+        <v>0.45442907822763</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1303473333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.391042</v>
+      </c>
+      <c r="O18">
+        <v>0.02371648897080341</v>
+      </c>
+      <c r="P18">
+        <v>0.02542618089974565</v>
+      </c>
+      <c r="Q18">
+        <v>3.507929289569556</v>
+      </c>
+      <c r="R18">
+        <v>31.571363606126</v>
+      </c>
+      <c r="S18">
+        <v>0.01071496563138713</v>
+      </c>
+      <c r="T18">
+        <v>0.01155439594912039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>26.91216766666667</v>
+      </c>
+      <c r="H19">
+        <v>80.736503</v>
+      </c>
+      <c r="I19">
+        <v>0.4517939246647333</v>
+      </c>
+      <c r="J19">
+        <v>0.45442907822763</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.279652333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.838957</v>
+      </c>
+      <c r="O19">
+        <v>0.2328306968302345</v>
+      </c>
+      <c r="P19">
+        <v>0.2496151695939179</v>
+      </c>
+      <c r="Q19">
+        <v>34.43821814970789</v>
+      </c>
+      <c r="R19">
+        <v>309.943963347371</v>
+      </c>
+      <c r="S19">
+        <v>0.1051914943033563</v>
+      </c>
+      <c r="T19">
+        <v>0.1134323914301977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>26.91216766666667</v>
+      </c>
+      <c r="H20">
+        <v>80.736503</v>
+      </c>
+      <c r="I20">
+        <v>0.4517939246647333</v>
+      </c>
+      <c r="J20">
+        <v>0.45442907822763</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.94648</v>
+      </c>
+      <c r="N20">
+        <v>8.83944</v>
+      </c>
+      <c r="O20">
+        <v>0.5361073267528257</v>
+      </c>
+      <c r="P20">
+        <v>0.5747546311967708</v>
+      </c>
+      <c r="Q20">
+        <v>79.29616378647999</v>
+      </c>
+      <c r="R20">
+        <v>713.66547407832</v>
+      </c>
+      <c r="S20">
+        <v>0.2422100331951777</v>
+      </c>
+      <c r="T20">
+        <v>0.26118521726181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>26.91216766666667</v>
+      </c>
+      <c r="H21">
+        <v>80.736503</v>
+      </c>
+      <c r="I21">
+        <v>0.4517939246647333</v>
+      </c>
+      <c r="J21">
+        <v>0.45442907822763</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>1.108689</v>
+      </c>
+      <c r="N21">
+        <v>2.217378</v>
+      </c>
+      <c r="O21">
+        <v>0.2017241915744426</v>
+      </c>
+      <c r="P21">
+        <v>0.1441774902724418</v>
+      </c>
+      <c r="Q21">
+        <v>29.837224258189</v>
+      </c>
+      <c r="R21">
+        <v>179.023345549134</v>
+      </c>
+      <c r="S21">
+        <v>0.09113776421123794</v>
+      </c>
+      <c r="T21">
+        <v>0.06551844400567884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0362615</v>
+      </c>
+      <c r="H22">
+        <v>2.072523</v>
+      </c>
+      <c r="I22">
+        <v>0.01739646749614472</v>
+      </c>
+      <c r="J22">
+        <v>0.01166528994320651</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.030895</v>
+      </c>
+      <c r="N22">
+        <v>0.092685</v>
+      </c>
+      <c r="O22">
+        <v>0.005621295871693869</v>
+      </c>
+      <c r="P22">
+        <v>0.006026528037123699</v>
+      </c>
+      <c r="Q22">
+        <v>0.0320152990425</v>
+      </c>
+      <c r="R22">
+        <v>0.192091794255</v>
+      </c>
+      <c r="S22">
+        <v>9.779069091813488E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.030119690391116E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0362615</v>
+      </c>
+      <c r="H23">
+        <v>2.072523</v>
+      </c>
+      <c r="I23">
+        <v>0.01739646749614472</v>
+      </c>
+      <c r="J23">
+        <v>0.01166528994320651</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1303473333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.391042</v>
+      </c>
+      <c r="O23">
+        <v>0.02371648897080341</v>
+      </c>
+      <c r="P23">
+        <v>0.02542618089974565</v>
+      </c>
+      <c r="Q23">
+        <v>0.135073923161</v>
+      </c>
+      <c r="R23">
+        <v>0.810443538966</v>
+      </c>
+      <c r="S23">
+        <v>0.0004125831295032562</v>
+      </c>
+      <c r="T23">
+        <v>0.0002966037723439524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0362615</v>
+      </c>
+      <c r="H24">
+        <v>2.072523</v>
+      </c>
+      <c r="I24">
+        <v>0.01739646749614472</v>
+      </c>
+      <c r="J24">
+        <v>0.01166528994320651</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.279652333333333</v>
+      </c>
+      <c r="N24">
+        <v>3.838957</v>
+      </c>
+      <c r="O24">
+        <v>0.2328306968302345</v>
+      </c>
+      <c r="P24">
+        <v>0.2496151695939179</v>
+      </c>
+      <c r="Q24">
+        <v>1.3260544464185</v>
+      </c>
+      <c r="R24">
+        <v>7.956326678511</v>
+      </c>
+      <c r="S24">
+        <v>0.004050431649511899</v>
+      </c>
+      <c r="T24">
+        <v>0.002911833327535719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0362615</v>
+      </c>
+      <c r="H25">
+        <v>2.072523</v>
+      </c>
+      <c r="I25">
+        <v>0.01739646749614472</v>
+      </c>
+      <c r="J25">
+        <v>0.01166528994320651</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.94648</v>
+      </c>
+      <c r="N25">
+        <v>8.83944</v>
+      </c>
+      <c r="O25">
+        <v>0.5361073267528257</v>
+      </c>
+      <c r="P25">
+        <v>0.5747546311967708</v>
+      </c>
+      <c r="Q25">
+        <v>3.053323784519999</v>
+      </c>
+      <c r="R25">
+        <v>18.31994270712</v>
+      </c>
+      <c r="S25">
+        <v>0.009326373684300568</v>
+      </c>
+      <c r="T25">
+        <v>0.006704679419111058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0362615</v>
+      </c>
+      <c r="H26">
+        <v>2.072523</v>
+      </c>
+      <c r="I26">
+        <v>0.01739646749614472</v>
+      </c>
+      <c r="J26">
+        <v>0.01166528994320651</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>1.108689</v>
+      </c>
+      <c r="N26">
+        <v>2.217378</v>
+      </c>
+      <c r="O26">
+        <v>0.2017241915744426</v>
+      </c>
+      <c r="P26">
+        <v>0.1441774902724418</v>
+      </c>
+      <c r="Q26">
+        <v>1.1488917261735</v>
+      </c>
+      <c r="R26">
+        <v>4.595566904694</v>
+      </c>
+      <c r="S26">
+        <v>0.003509288341910861</v>
+      </c>
+      <c r="T26">
+        <v>0.001681872227311871</v>
       </c>
     </row>
   </sheetData>
